--- a/func_tests/tests/allsubjectstests/people.xlsx
+++ b/func_tests/tests/allsubjectstests/people.xlsx
@@ -1,21 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
-  </bookViews>
-  <sheets>
-    <sheet name="people" sheetId="1" r:id="rId1"/>
-    <sheet name="codes" sheetId="2" state="hidden" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <s:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="people" sheetId="1" r:id="rId1"/>
+    <s:sheet name="codes" sheetId="2" r:id="rId2" state="hidden"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+</s:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>What is the people's first name?</t>
+  </si>
+  <si>
+    <t>What is the people's last name?</t>
+  </si>
+  <si>
+    <t>What is the people's location?</t>
+  </si>
+  <si>
+    <t>What is the people's GPS co-ordinates?</t>
+  </si>
+  <si>
+    <t>What is the people's mobile telephone number?</t>
+  </si>
+  <si>
+    <t>What is the people's Unique ID Number?</t>
+  </si>
+  <si>
+    <t>FName91</t>
+  </si>
+  <si>
+    <t>LName64</t>
+  </si>
+  <si>
+    <t>Loc69</t>
+  </si>
+  <si>
+    <t>5.0, 3.0</t>
+  </si>
+  <si>
+    <t>685310</t>
+  </si>
+  <si>
+    <t>FName12</t>
+  </si>
+  <si>
+    <t>LName93</t>
+  </si>
+  <si>
+    <t>Loc96</t>
+  </si>
+  <si>
+    <t>6.0, 6.0</t>
+  </si>
+  <si>
+    <t>519062</t>
+  </si>
+  <si>
+    <t>peo</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -25,11 +101,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,22 +126,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -353,290 +429,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="24"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.42578125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="22.7109375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="44"/>
+    <col customWidth="1" max="5" min="5" style="1" width="36.7109375"/>
+    <col customWidth="1" max="6" min="6" style="1" width="44"/>
   </cols>
   <sheetData>
-    <row r="1" ht="100" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <sz val="11"/>
-              <color theme="1"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t>What is the people's first name?</t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color rgb="FF800000"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t xml:space="preserve">
-Answer must be a word</t>
-          </r>
-          <r>
-            <rPr>
-              <i/>
-              <sz val="11"/>
-              <color rgb="FF808080"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-              <scheme val="minor"/>
-            </rPr>
-            <t xml:space="preserve">
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <sz val="11"/>
-              <color theme="1"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t>What is the people's last name?</t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color rgb="FF800000"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t xml:space="preserve">
-Answer must be a word</t>
-          </r>
-          <r>
-            <rPr>
-              <i/>
-              <sz val="11"/>
-              <color rgb="FF808080"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-              <scheme val="minor"/>
-            </rPr>
-            <t xml:space="preserve">
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <sz val="11"/>
-              <color theme="1"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t>What is the people's location?</t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color rgb="FF800000"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t xml:space="preserve">
-Enter name of the location.</t>
-          </r>
-          <r>
-            <rPr>
-              <i/>
-              <sz val="11"/>
-              <color rgb="FF808080"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-              <scheme val="minor"/>
-            </rPr>
-            <t xml:space="preserve">
-Example: Nairobi</t>
-          </r>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <sz val="11"/>
-              <color theme="1"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t>What is the people's GPS co-ordinates?</t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color rgb="FF800000"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t xml:space="preserve">
-Answer must be GPS coordinates in the following format (latitude,longitude).</t>
-          </r>
-          <r>
-            <rPr>
-              <i/>
-              <sz val="11"/>
-              <color rgb="FF808080"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-              <scheme val="minor"/>
-            </rPr>
-            <t xml:space="preserve">
-Example: -18.1324,27.6547</t>
-          </r>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <sz val="11"/>
-              <color theme="1"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t>What is the people's mobile telephone number?</t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color rgb="FF800000"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t xml:space="preserve">
-Answer must be country code plus telephone number</t>
-          </r>
-          <r>
-            <rPr>
-              <i/>
-              <sz val="11"/>
-              <color rgb="FF808080"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-              <scheme val="minor"/>
-            </rPr>
-            <t xml:space="preserve">
-Example: 261333745269</t>
-          </r>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <sz val="11"/>
-              <color theme="1"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t>What is the people's Unique ID Number?</t>
-          </r>
-          <r>
-            <rPr>
-              <sz val="11"/>
-              <color rgb="FF800000"/>
-              <rFont val="Helvetica"/>
-              <family val="2"/>
-            </rPr>
-            <t xml:space="preserve">
-Assign a unique ID for each Identification Number.</t>
-          </r>
-          <r>
-            <rPr>
-              <i/>
-              <sz val="11"/>
-              <color rgb="FF808080"/>
-              <rFont val="Calibri"/>
-              <family val="2"/>
-              <scheme val="minor"/>
-            </rPr>
-            <t xml:space="preserve">
-Leave this column blank if you want DataWinners to assign an ID for you.</t>
-          </r>
-        </is>
+    <row customHeight="1" r="1" ht="100" spans="1:6">
+      <c s="1" r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c s="1" r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="50" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>peo</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>q1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>q2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>q3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>q4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>q5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>q6</t>
-        </is>
+    <row customHeight="1" r="1" ht="50" spans="1:7">
+      <c s="2" r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c s="2" r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c s="2" r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c s="2" r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c s="2" r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c s="2" r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c s="2" r="G1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>